--- a/biology/Zoologie/Anomia/Anomia.xlsx
+++ b/biology/Zoologie/Anomia/Anomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomia (les anomies) est un genre de mollusques bivalves de la famille des Anomiidae.
 Le terme anomie (du grec ἀ- / a- « absence de » et νόμος / nómos « règle, structure ») renvoie à l'allure amorphe et variable du coquillage. L’anomie se fixe sur tout support solide : rocher, autres bivalves, gorgones, crampons de laminaires. Elle y adhère fortement grâce à un byssus calcifié et prend la forme du substrat, de telle manière qu’il est impossible de la détacher sans la briser.
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon WoRMS[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon WoRMS :
 Anomia achaea Gray, 1850
 Anomia acontes Gray, 1850 (syn. Anomia simplex d'Orbigny in de la Sagra, 1853) - Anomie simple
 Anomia chinensis Philippi, 1849 - Anomie de Chine
